--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf7</t>
   </si>
   <si>
     <t>Fgfr2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.076485816864</v>
+        <v>11.14069866666667</v>
       </c>
       <c r="H2">
-        <v>11.076485816864</v>
+        <v>33.422096</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.26900035245902</v>
+        <v>0.7050016666666666</v>
       </c>
       <c r="N2">
-        <v>2.26900035245902</v>
+        <v>2.115005</v>
       </c>
       <c r="O2">
-        <v>0.9429632358804567</v>
+        <v>0.2162043499394578</v>
       </c>
       <c r="P2">
-        <v>0.9429632358804567</v>
+        <v>0.2162043499394578</v>
       </c>
       <c r="Q2">
-        <v>25.13255022247175</v>
+        <v>7.854211127831111</v>
       </c>
       <c r="R2">
-        <v>25.13255022247175</v>
+        <v>70.68790015048</v>
       </c>
       <c r="S2">
-        <v>0.9429632358804567</v>
+        <v>0.2093853256085307</v>
       </c>
       <c r="T2">
-        <v>0.9429632358804567</v>
+        <v>0.2093853256085307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,433 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.076485816864</v>
+        <v>11.14069866666667</v>
       </c>
       <c r="H3">
-        <v>11.076485816864</v>
+        <v>33.422096</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.137244415228477</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N3">
-        <v>0.137244415228477</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.05703676411954329</v>
+        <v>0.716842176819984</v>
       </c>
       <c r="P3">
-        <v>0.05703676411954329</v>
+        <v>0.716842176819984</v>
       </c>
       <c r="Q3">
-        <v>1.520185818722019</v>
+        <v>26.04124201781689</v>
       </c>
       <c r="R3">
-        <v>1.520185818722019</v>
+        <v>234.371178160352</v>
       </c>
       <c r="S3">
-        <v>0.05703676411954329</v>
+        <v>0.694233176369535</v>
       </c>
       <c r="T3">
-        <v>0.05703676411954329</v>
+        <v>0.694233176369535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>11.14069866666667</v>
+      </c>
+      <c r="H4">
+        <v>33.422096</v>
+      </c>
+      <c r="I4">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="J4">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.007121333333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.021364</v>
+      </c>
+      <c r="O4">
+        <v>0.002183914332167809</v>
+      </c>
+      <c r="P4">
+        <v>0.002183914332167809</v>
+      </c>
+      <c r="Q4">
+        <v>0.07933662877155556</v>
+      </c>
+      <c r="R4">
+        <v>0.7140296589440001</v>
+      </c>
+      <c r="S4">
+        <v>0.002115034288949979</v>
+      </c>
+      <c r="T4">
+        <v>0.002115034288949979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11.14069866666667</v>
+      </c>
+      <c r="H5">
+        <v>33.422096</v>
+      </c>
+      <c r="I5">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="J5">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2112013333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.6336040000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0647695589083904</v>
+      </c>
+      <c r="P5">
+        <v>0.06476955890839041</v>
+      </c>
+      <c r="Q5">
+        <v>2.352930412664889</v>
+      </c>
+      <c r="R5">
+        <v>21.176373713984</v>
+      </c>
+      <c r="S5">
+        <v>0.06272674525444029</v>
+      </c>
+      <c r="T5">
+        <v>0.0627267452544403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.088453</v>
+      </c>
+      <c r="I6">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J6">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7050016666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.115005</v>
+      </c>
+      <c r="O6">
+        <v>0.2162043499394578</v>
+      </c>
+      <c r="P6">
+        <v>0.2162043499394578</v>
+      </c>
+      <c r="Q6">
+        <v>0.2557870596961111</v>
+      </c>
+      <c r="R6">
+        <v>2.302083537265</v>
+      </c>
+      <c r="S6">
+        <v>0.006819024330927122</v>
+      </c>
+      <c r="T6">
+        <v>0.006819024330927122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.088453</v>
+      </c>
+      <c r="I7">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J7">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.337487333333333</v>
+      </c>
+      <c r="N7">
+        <v>7.012461999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.716842176819984</v>
+      </c>
+      <c r="P7">
+        <v>0.716842176819984</v>
+      </c>
+      <c r="Q7">
+        <v>0.8480817001428889</v>
+      </c>
+      <c r="R7">
+        <v>7.632735301285998</v>
+      </c>
+      <c r="S7">
+        <v>0.02260900045044899</v>
+      </c>
+      <c r="T7">
+        <v>0.02260900045044899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.088453</v>
+      </c>
+      <c r="I8">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J8">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.007121333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.021364</v>
+      </c>
+      <c r="O8">
+        <v>0.002183914332167809</v>
+      </c>
+      <c r="P8">
+        <v>0.002183914332167809</v>
+      </c>
+      <c r="Q8">
+        <v>0.002583745543555556</v>
+      </c>
+      <c r="R8">
+        <v>0.023253709892</v>
+      </c>
+      <c r="S8">
+        <v>6.888004321783025E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.888004321783024E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.088453</v>
+      </c>
+      <c r="I9">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J9">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2112013333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.6336040000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0647695589083904</v>
+      </c>
+      <c r="P9">
+        <v>0.06476955890839041</v>
+      </c>
+      <c r="Q9">
+        <v>0.07662757495688889</v>
+      </c>
+      <c r="R9">
+        <v>0.689648174612</v>
+      </c>
+      <c r="S9">
+        <v>0.002042813653950108</v>
+      </c>
+      <c r="T9">
+        <v>0.002042813653950108</v>
       </c>
     </row>
   </sheetData>
